--- a/biology/Zoologie/Gerbille_du_Souss/Gerbille_du_Souss.xlsx
+++ b/biology/Zoologie/Gerbille_du_Souss/Gerbille_du_Souss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus hoogstraali
-La Gerbille du Souss[1],[2] (Gerbillus hoogstraali ou Gerbillus (Gerbillus) hoogstraali) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés. L'espèce est vulnérable et endémique du Maroc.
+La Gerbille du Souss, (Gerbillus hoogstraali ou Gerbillus (Gerbillus) hoogstraali) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés. L'espèce est vulnérable et endémique du Maroc.
 </t>
         </is>
       </c>
